--- a/EduAnalysisTool/input_tool/edu_table_helper_EN_SYR.xlsx
+++ b/EduAnalysisTool/input_tool/edu_table_helper_EN_SYR.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/MSNA_2024_analysis/EduAnalysisTool/input_tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF70299C-AB55-4640-B734-DE67DE50FDA8}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997785C5-AB02-4354-A39E-26ECE7355A22}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" firstSheet="2" activeTab="3" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
     <sheet name="overaged" sheetId="9" r:id="rId2"/>
-    <sheet name="level4" sheetId="8" r:id="rId3"/>
-    <sheet name="out_of_school" sheetId="3" r:id="rId4"/>
-    <sheet name="ece" sheetId="4" r:id="rId5"/>
-    <sheet name="level1" sheetId="5" r:id="rId6"/>
-    <sheet name="level2" sheetId="6" r:id="rId7"/>
-    <sheet name="level3" sheetId="7" r:id="rId8"/>
+    <sheet name="out_of_school" sheetId="3" r:id="rId3"/>
+    <sheet name="ece" sheetId="4" r:id="rId4"/>
+    <sheet name="level1" sheetId="5" r:id="rId5"/>
+    <sheet name="level2" sheetId="6" r:id="rId6"/>
+    <sheet name="level3" sheetId="7" r:id="rId7"/>
+    <sheet name="level4" sheetId="8" r:id="rId8"/>
     <sheet name="non_formal" sheetId="10" r:id="rId9"/>
     <sheet name="wgq" sheetId="11" r:id="rId10"/>
   </sheets>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
   <si>
     <t>tab</t>
   </si>
@@ -158,9 +158,6 @@
     <t>% of school-aged children attending primary school who are at least 2 years above the intended age for their grade</t>
   </si>
   <si>
-    <t>% of school-aged children attending secondary school who are at least 2 years above the intended age for their grade</t>
-  </si>
-  <si>
     <t>% of school-aged children whose education was disrupted due to the school being occupied by displaced persons</t>
   </si>
   <si>
@@ -231,6 +228,12 @@
   </si>
   <si>
     <t>Cannot afford the direct costs of education</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending lower secondary school who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending upper secondary school who are at least 2 years above the intended age for their grade</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,12 +283,6 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFEFC1"/>
       </patternFill>
     </fill>
     <fill>
@@ -308,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -317,9 +314,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -332,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,13 +713,13 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -733,7 +727,7 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -741,13 +735,13 @@
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G5" s="6" t="s">
-        <v>57</v>
+      <c r="G5" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -795,51 +789,51 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>53</v>
+      <c r="G3" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G5" s="7" t="s">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G6" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -851,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36B93C1-E6B8-4A90-A407-38EEDC988F7A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -906,23 +900,25 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -930,85 +926,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25073DEA-EBA1-4BC2-8E1E-EDCA81A49738}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1051,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -1059,39 +980,39 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>61</v>
+      <c r="G2" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>40</v>
+      <c r="G3" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>42</v>
+      <c r="G4" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="7" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675A8981-F8A2-408A-9A14-DF2744D820F7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1178,7 +1099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1253,7 +1174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234059E-FF89-4231-AEDD-537A0FD72374}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1328,7 +1249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF67C88-2243-4200-BD46-1196A6B1AE0E}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1385,6 +1306,81 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25073DEA-EBA1-4BC2-8E1E-EDCA81A49738}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1441,25 +1437,25 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/EduAnalysisTool/input_tool/edu_table_helper_EN_SYR.xlsx
+++ b/EduAnalysisTool/input_tool/edu_table_helper_EN_SYR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNA_2024_EduAnalysis/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997785C5-AB02-4354-A39E-26ECE7355A22}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{99C3B959-47B9-46FF-840A-9ED11DAE893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD3096D-A264-4C31-9166-4B90C8171551}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="68">
   <si>
     <t>tab</t>
   </si>
@@ -98,9 +98,6 @@
     <t>% of school-aged children whose education was disrupted due to natural hazards</t>
   </si>
   <si>
-    <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2023-2024 school year</t>
-  </si>
-  <si>
     <t>% of school-aged children of primary school age currently attending primary or higher</t>
   </si>
   <si>
@@ -167,12 +164,6 @@
     <t>Child participating in income generating activities outside of the home</t>
   </si>
   <si>
-    <t>There is a lack of interest/Education is not a priority either for the child or the household</t>
-  </si>
-  <si>
-    <t>Lack of appropriate and accessible school</t>
-  </si>
-  <si>
     <t>non_formal</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve">private tutoring </t>
-  </si>
-  <si>
     <t>wgq</t>
   </si>
   <si>
@@ -215,32 +203,59 @@
     <t>no difficulty -- % of school-aged children with at least one of WG-SS component is at level 'no difficulty'</t>
   </si>
   <si>
-    <t>% of school-aged children whose education was disrupted due to the school being occupied by armed groups</t>
-  </si>
-  <si>
     <t>The child's disability or health issues prevents them from accessing school</t>
   </si>
   <si>
     <t>other</t>
   </si>
   <si>
-    <t>% of school-aged children accessing education outside of formal schools during the 2023-2024 school year</t>
-  </si>
-  <si>
-    <t>Cannot afford the direct costs of education</t>
-  </si>
-  <si>
-    <t>% of school-aged children attending lower secondary school who are at least 2 years above the intended age for their grade</t>
-  </si>
-  <si>
-    <t>% of school-aged children attending upper secondary school who are at least 2 years above the intended age for their grade</t>
+    <t>The child is too young</t>
+  </si>
+  <si>
+    <t>The household could not afford the direct costs of education, e.g. tuition, supplies, transportation</t>
+  </si>
+  <si>
+    <t>Education is not a priority either for the child or the household</t>
+  </si>
+  <si>
+    <t>% of school-aged children who attended school or any early childhood education program at any time during the 2024-2025 school year </t>
+  </si>
+  <si>
+    <t>% of school-aged children whose education was disrupted due to direct attack on education</t>
+  </si>
+  <si>
+    <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2024-2025 school year</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending primary second cycle who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending  upper secondary school who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>Early Childhood Education</t>
+  </si>
+  <si>
+    <t>Inclusive Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Remedial Classes</t>
+  </si>
+  <si>
+    <t>% of school-aged children accessing education outside of formal schools during the 2024-2025 school year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +286,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -287,8 +326,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -301,11 +340,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -317,18 +357,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 3" xfId="1" xr:uid="{F5926E20-CCAC-4642-87FD-D0DA4C1FB8CE}"/>
   </cellStyles>
@@ -664,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B085A-F222-4D02-94C7-458C197FFE9F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,12 +752,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -713,35 +765,35 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
+      <c r="E2" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -789,51 +841,51 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>49</v>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G5" s="6" t="s">
-        <v>54</v>
+      <c r="G5" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G6" s="6" t="s">
-        <v>55</v>
+      <c r="G6" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -845,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36B93C1-E6B8-4A90-A407-38EEDC988F7A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,12 +933,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -894,30 +946,30 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="9" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -929,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,58 +1013,58 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>60</v>
+      <c r="G2" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="8" t="s">
-        <v>57</v>
+      <c r="G5" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="8" t="s">
-        <v>40</v>
+      <c r="G6" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="7" t="s">
-        <v>58</v>
+      <c r="G7" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1077,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,12 +1110,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1071,27 +1123,27 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1156,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,12 +1187,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1148,25 +1200,25 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +1231,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,12 +1262,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1223,25 +1275,25 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1306,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,12 +1337,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1298,25 +1350,25 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1365,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1380,18 +1432,18 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1403,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9C0465-1C7D-4B1F-A8C2-33AD3A9FD7BD}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,44 +1489,52 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="3"/>
+      <c r="G5" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="3"/>
+      <c r="G6" s="10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" s="3"/>
